--- a/Congreso_2016/DATOS_COMPLETO_2016.xlsx
+++ b/Congreso_2016/DATOS_COMPLETO_2016.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="1396">
   <si>
     <t xml:space="preserve">1. Nombres</t>
   </si>
@@ -4388,21 +4388,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D250" activeCellId="0" sqref="D250"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -4446,7 +4446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>16</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>20</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>24</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>28</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>32</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>41</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>48</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>51</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>60</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>68</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>71</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>77</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>80</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>88</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>91</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>94</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>101</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>107</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>115</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>124</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>128</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>137</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>140</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>147</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>150</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>152</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>158</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>162</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>179</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>182</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>185</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>179</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>189</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>189</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>192</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>196</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>204</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>209</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>212</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>156</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>214</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>215</v>
@@ -5938,7 +5938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>216</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>219</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>221</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>227</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>227</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>231</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>233</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>238</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>12</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>264</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>271</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>282</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>285</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>288</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>292</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>298</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>300</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>303</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>309</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>311</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>312</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>313</v>
@@ -6835,7 +6835,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>314</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>317</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>323</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>57</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>332</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>335</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>338</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>343</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>352</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>363</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>376</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>384</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>387</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>390</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>393</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>400</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>406</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>409</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>413</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>413</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>417</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>423</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
         <v>423</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>428</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>431</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>434</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>437</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>439</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>439</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>442</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>445</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>448</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>451</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>131</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>474</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>486</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>496</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>505</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>507</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>518</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>526</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>529</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>531</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>543</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>548</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>551</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>557</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>570</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>523</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>581</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>584</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>591</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>593</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>596</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>613</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>615</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>621</v>
       </c>
@@ -9393,6 +9393,9 @@
       <c r="C251" s="0" t="s">
         <v>622</v>
       </c>
+      <c r="D251" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E251" s="0" t="s">
         <v>623</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>624</v>
       </c>
@@ -9410,6 +9413,9 @@
       <c r="C252" s="0" t="s">
         <v>625</v>
       </c>
+      <c r="D252" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E252" s="0" t="s">
         <v>626</v>
       </c>
@@ -9417,7 +9423,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>627</v>
       </c>
@@ -9426,6 +9432,9 @@
       </c>
       <c r="C253" s="0" t="s">
         <v>628</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E253" s="0" t="s">
         <v>629</v>
@@ -9444,6 +9453,9 @@
       <c r="C254" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D254" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E254" s="0" t="s">
         <v>630</v>
       </c>
@@ -9461,6 +9473,9 @@
       <c r="C255" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D255" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E255" s="0" t="s">
         <v>632</v>
       </c>
@@ -9468,7 +9483,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>634</v>
       </c>
@@ -9478,6 +9493,9 @@
       <c r="C256" s="0" t="s">
         <v>635</v>
       </c>
+      <c r="D256" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E256" s="0" t="s">
         <v>636</v>
       </c>
@@ -9485,7 +9503,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>637</v>
       </c>
@@ -9495,6 +9513,9 @@
       <c r="C257" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="D257" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E257" s="0" t="s">
         <v>638</v>
       </c>
@@ -9502,7 +9523,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>640</v>
       </c>
@@ -9512,6 +9533,9 @@
       <c r="C258" s="0" t="s">
         <v>641</v>
       </c>
+      <c r="D258" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E258" s="0" t="s">
         <v>642</v>
       </c>
@@ -9519,7 +9543,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>581</v>
       </c>
@@ -9529,6 +9553,9 @@
       <c r="C259" s="0" t="s">
         <v>582</v>
       </c>
+      <c r="D259" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E259" s="0" t="s">
         <v>643</v>
       </c>
@@ -9536,7 +9563,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>644</v>
       </c>
@@ -9546,6 +9573,9 @@
       <c r="C260" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="D260" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E260" s="0" t="s">
         <v>645</v>
       </c>
@@ -9553,7 +9583,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>646</v>
       </c>
@@ -9563,6 +9593,9 @@
       <c r="C261" s="0" t="s">
         <v>647</v>
       </c>
+      <c r="D261" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E261" s="0" t="s">
         <v>648</v>
       </c>
@@ -9570,7 +9603,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>649</v>
       </c>
@@ -9579,6 +9612,9 @@
       </c>
       <c r="C262" s="0" t="s">
         <v>199</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>650</v>
@@ -9597,6 +9633,9 @@
       <c r="C263" s="0" t="s">
         <v>652</v>
       </c>
+      <c r="D263" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E263" s="0" t="s">
         <v>653</v>
       </c>
@@ -9604,7 +9643,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>654</v>
       </c>
@@ -9614,6 +9653,9 @@
       <c r="C264" s="0" t="s">
         <v>655</v>
       </c>
+      <c r="D264" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E264" s="0" t="s">
         <v>656</v>
       </c>
@@ -9621,7 +9663,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>657</v>
       </c>
@@ -9631,6 +9673,9 @@
       <c r="C265" s="0" t="s">
         <v>658</v>
       </c>
+      <c r="D265" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E265" s="0" t="s">
         <v>659</v>
       </c>
@@ -9638,7 +9683,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>233</v>
       </c>
@@ -9648,6 +9693,9 @@
       <c r="C266" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D266" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E266" s="0" t="s">
         <v>660</v>
       </c>
@@ -9655,7 +9703,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>661</v>
       </c>
@@ -9665,6 +9713,9 @@
       <c r="C267" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D267" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E267" s="0" t="s">
         <v>662</v>
       </c>
@@ -9672,7 +9723,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>663</v>
       </c>
@@ -9682,6 +9733,9 @@
       <c r="C268" s="0" t="s">
         <v>664</v>
       </c>
+      <c r="D268" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E268" s="0" t="s">
         <v>665</v>
       </c>
@@ -9689,7 +9743,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>666</v>
       </c>
@@ -9699,6 +9753,9 @@
       <c r="C269" s="0" t="s">
         <v>141</v>
       </c>
+      <c r="D269" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E269" s="0" t="s">
         <v>667</v>
       </c>
@@ -9706,7 +9763,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>668</v>
       </c>
@@ -9716,6 +9773,9 @@
       <c r="C270" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D270" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E270" s="0" t="s">
         <v>669</v>
       </c>
@@ -9723,7 +9783,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>670</v>
       </c>
@@ -9732,6 +9792,9 @@
       </c>
       <c r="C271" s="0" t="s">
         <v>671</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>672</v>
@@ -9750,6 +9813,9 @@
       <c r="C272" s="0" t="s">
         <v>674</v>
       </c>
+      <c r="D272" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E272" s="0" t="s">
         <v>675</v>
       </c>
@@ -9757,7 +9823,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>676</v>
       </c>
@@ -9766,6 +9832,9 @@
       </c>
       <c r="C273" s="0" t="s">
         <v>677</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E273" s="0" t="s">
         <v>678</v>
@@ -9784,6 +9853,9 @@
       <c r="C274" s="0" t="s">
         <v>680</v>
       </c>
+      <c r="D274" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E274" s="0" t="s">
         <v>681</v>
       </c>
@@ -9801,6 +9873,9 @@
       <c r="C275" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D275" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E275" s="0" t="s">
         <v>683</v>
       </c>
@@ -9818,6 +9893,9 @@
       <c r="C276" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="D276" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E276" s="0" t="s">
         <v>685</v>
       </c>
@@ -9825,7 +9903,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>686</v>
       </c>
@@ -9835,6 +9913,9 @@
       <c r="C277" s="0" t="s">
         <v>664</v>
       </c>
+      <c r="D277" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E277" s="0" t="s">
         <v>687</v>
       </c>
@@ -9842,7 +9923,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>194</v>
       </c>
@@ -9859,7 +9940,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>690</v>
       </c>
@@ -9868,6 +9949,9 @@
       </c>
       <c r="C279" s="0" t="s">
         <v>691</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E279" s="0" t="s">
         <v>692</v>
@@ -9886,6 +9970,9 @@
       <c r="C280" s="0" t="s">
         <v>694</v>
       </c>
+      <c r="D280" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E280" s="0" t="s">
         <v>695</v>
       </c>
@@ -9893,7 +9980,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>696</v>
       </c>
@@ -9903,6 +9990,9 @@
       <c r="C281" s="0" t="s">
         <v>697</v>
       </c>
+      <c r="D281" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E281" s="0" t="s">
         <v>698</v>
       </c>
@@ -9910,7 +10000,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>699</v>
       </c>
@@ -9920,6 +10010,9 @@
       <c r="C282" s="0" t="s">
         <v>429</v>
       </c>
+      <c r="D282" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E282" s="0" t="s">
         <v>700</v>
       </c>
@@ -9927,7 +10020,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>701</v>
       </c>
@@ -9936,6 +10029,9 @@
       </c>
       <c r="C283" s="0" t="s">
         <v>141</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E283" s="0" t="s">
         <v>702</v>
@@ -9954,6 +10050,9 @@
       <c r="C284" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="D284" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E284" s="0" t="s">
         <v>704</v>
       </c>
@@ -9971,6 +10070,9 @@
       <c r="C285" s="0" t="s">
         <v>321</v>
       </c>
+      <c r="D285" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E285" s="0" t="s">
         <v>706</v>
       </c>
@@ -9978,7 +10080,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>707</v>
       </c>
@@ -9988,6 +10090,9 @@
       <c r="C286" s="0" t="s">
         <v>708</v>
       </c>
+      <c r="D286" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E286" s="0" t="s">
         <v>709</v>
       </c>
@@ -9995,7 +10100,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>710</v>
       </c>
@@ -10005,6 +10110,9 @@
       <c r="C287" s="0" t="s">
         <v>711</v>
       </c>
+      <c r="D287" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E287" s="0" t="s">
         <v>712</v>
       </c>
@@ -10012,7 +10120,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>713</v>
       </c>
@@ -10022,6 +10130,9 @@
       <c r="C288" s="0" t="s">
         <v>714</v>
       </c>
+      <c r="D288" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E288" s="0" t="s">
         <v>715</v>
       </c>
@@ -10029,7 +10140,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>716</v>
       </c>
@@ -10039,6 +10150,9 @@
       <c r="C289" s="0" t="s">
         <v>717</v>
       </c>
+      <c r="D289" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E289" s="0" t="s">
         <v>718</v>
       </c>
@@ -10046,7 +10160,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="290" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
         <v>716</v>
       </c>
@@ -10055,6 +10169,9 @@
       </c>
       <c r="C290" s="2" t="s">
         <v>717</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>718</v>
@@ -10073,6 +10190,9 @@
       <c r="C291" s="0" t="s">
         <v>720</v>
       </c>
+      <c r="D291" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E291" s="0" t="s">
         <v>721</v>
       </c>
@@ -10090,6 +10210,9 @@
       <c r="C292" s="0" t="s">
         <v>723</v>
       </c>
+      <c r="D292" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E292" s="0" t="s">
         <v>724</v>
       </c>
@@ -10107,6 +10230,9 @@
       <c r="C293" s="0" t="s">
         <v>516</v>
       </c>
+      <c r="D293" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E293" s="0" t="s">
         <v>726</v>
       </c>
@@ -10114,7 +10240,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>727</v>
       </c>
@@ -10123,6 +10249,9 @@
       </c>
       <c r="C294" s="0" t="s">
         <v>628</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E294" s="0" t="s">
         <v>728</v>
@@ -10141,6 +10270,9 @@
       <c r="C295" s="0" t="s">
         <v>586</v>
       </c>
+      <c r="D295" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E295" s="0" t="s">
         <v>730</v>
       </c>
@@ -10148,7 +10280,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>731</v>
       </c>
@@ -10157,6 +10289,9 @@
       </c>
       <c r="C296" s="0" t="s">
         <v>732</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E296" s="0" t="s">
         <v>733</v>
@@ -10175,6 +10310,9 @@
       <c r="C297" s="0" t="s">
         <v>735</v>
       </c>
+      <c r="D297" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E297" s="0" t="s">
         <v>736</v>
       </c>
@@ -10192,6 +10330,9 @@
       <c r="C298" s="0" t="s">
         <v>738</v>
       </c>
+      <c r="D298" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E298" s="0" t="s">
         <v>739</v>
       </c>
@@ -10209,6 +10350,9 @@
       <c r="C299" s="0" t="s">
         <v>741</v>
       </c>
+      <c r="D299" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E299" s="0" t="s">
         <v>742</v>
       </c>
@@ -10216,7 +10360,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>743</v>
       </c>
@@ -10225,6 +10369,9 @@
       </c>
       <c r="C300" s="0" t="s">
         <v>744</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E300" s="0" t="s">
         <v>745</v>
@@ -10243,6 +10390,9 @@
       <c r="C301" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D301" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E301" s="0" t="s">
         <v>746</v>
       </c>
@@ -10250,7 +10400,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>152</v>
       </c>
@@ -10277,6 +10427,9 @@
       <c r="C303" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D303" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E303" s="0" t="s">
         <v>157</v>
       </c>
@@ -10284,7 +10437,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>158</v>
       </c>
@@ -10293,6 +10446,9 @@
       </c>
       <c r="C304" s="0" t="s">
         <v>141</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E304" s="0" t="s">
         <v>159</v>
@@ -10311,6 +10467,9 @@
       <c r="C305" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="D305" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E305" s="0" t="s">
         <v>161</v>
       </c>
@@ -10328,6 +10487,9 @@
       <c r="C306" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="D306" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E306" s="0" t="s">
         <v>161</v>
       </c>
@@ -10335,7 +10497,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>162</v>
       </c>
@@ -10344,6 +10506,9 @@
       </c>
       <c r="C307" s="0" t="s">
         <v>141</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E307" s="0" t="s">
         <v>163</v>
@@ -10362,6 +10527,9 @@
       <c r="C308" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="D308" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E308" s="0" t="s">
         <v>166</v>
       </c>
@@ -10369,7 +10537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>747</v>
       </c>
@@ -10379,6 +10547,9 @@
       <c r="C309" s="0" t="s">
         <v>748</v>
       </c>
+      <c r="D309" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E309" s="0" t="s">
         <v>749</v>
       </c>
@@ -10386,7 +10557,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>751</v>
       </c>
@@ -10396,6 +10567,9 @@
       <c r="C310" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="D310" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E310" s="0" t="s">
         <v>752</v>
       </c>
@@ -10403,7 +10577,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>753</v>
       </c>
@@ -10412,6 +10586,9 @@
       </c>
       <c r="C311" s="0" t="s">
         <v>116</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E311" s="0" t="s">
         <v>754</v>
@@ -10430,6 +10607,9 @@
       <c r="C312" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D312" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E312" s="0" t="s">
         <v>755</v>
       </c>
@@ -10437,7 +10617,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>756</v>
       </c>
@@ -10447,6 +10627,9 @@
       <c r="C313" s="0" t="s">
         <v>757</v>
       </c>
+      <c r="D313" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E313" s="0" t="s">
         <v>758</v>
       </c>
@@ -10454,7 +10637,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>759</v>
       </c>
@@ -10463,6 +10646,9 @@
       </c>
       <c r="C314" s="0" t="s">
         <v>129</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E314" s="0" t="s">
         <v>760</v>
@@ -10481,6 +10667,9 @@
       <c r="C315" s="0" t="s">
         <v>762</v>
       </c>
+      <c r="D315" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E315" s="0" t="s">
         <v>763</v>
       </c>
@@ -10488,7 +10677,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>764</v>
       </c>
@@ -10497,6 +10686,9 @@
       </c>
       <c r="C316" s="0" t="s">
         <v>234</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E316" s="0" t="s">
         <v>765</v>
@@ -10515,6 +10707,9 @@
       <c r="C317" s="0" t="s">
         <v>766</v>
       </c>
+      <c r="D317" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E317" s="0" t="s">
         <v>767</v>
       </c>
@@ -10522,7 +10717,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>768</v>
       </c>
@@ -10531,6 +10726,9 @@
       </c>
       <c r="C318" s="0" t="s">
         <v>89</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E318" s="0" t="s">
         <v>769</v>
@@ -10549,6 +10747,9 @@
       <c r="C319" s="0" t="s">
         <v>771</v>
       </c>
+      <c r="D319" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E319" s="0" t="s">
         <v>772</v>
       </c>
@@ -10556,7 +10757,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>773</v>
       </c>
@@ -10566,6 +10767,9 @@
       <c r="C320" s="0" t="s">
         <v>774</v>
       </c>
+      <c r="D320" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E320" s="0" t="s">
         <v>775</v>
       </c>
@@ -10573,7 +10777,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>776</v>
       </c>
@@ -10583,6 +10787,9 @@
       <c r="C321" s="0" t="s">
         <v>777</v>
       </c>
+      <c r="D321" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E321" s="0" t="s">
         <v>778</v>
       </c>
@@ -10590,7 +10797,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>779</v>
       </c>
@@ -10599,6 +10806,9 @@
       </c>
       <c r="C322" s="0" t="s">
         <v>780</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E322" s="0" t="s">
         <v>781</v>
@@ -10617,6 +10827,9 @@
       <c r="C323" s="0" t="s">
         <v>783</v>
       </c>
+      <c r="D323" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E323" s="0" t="s">
         <v>784</v>
       </c>
@@ -10634,6 +10847,9 @@
       <c r="C324" s="0" t="s">
         <v>786</v>
       </c>
+      <c r="D324" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E324" s="0" t="s">
         <v>787</v>
       </c>
@@ -10651,6 +10867,9 @@
       <c r="C325" s="0" t="s">
         <v>789</v>
       </c>
+      <c r="D325" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E325" s="0" t="s">
         <v>790</v>
       </c>
@@ -10668,6 +10887,9 @@
       <c r="C326" s="0" t="s">
         <v>792</v>
       </c>
+      <c r="D326" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E326" s="0" t="s">
         <v>793</v>
       </c>
@@ -10685,6 +10907,9 @@
       <c r="C327" s="0" t="s">
         <v>795</v>
       </c>
+      <c r="D327" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E327" s="0" t="s">
         <v>796</v>
       </c>
@@ -10692,7 +10917,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>797</v>
       </c>
@@ -10702,6 +10927,9 @@
       <c r="C328" s="0" t="s">
         <v>377</v>
       </c>
+      <c r="D328" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E328" s="0" t="s">
         <v>798</v>
       </c>
@@ -10709,7 +10937,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>799</v>
       </c>
@@ -10719,6 +10947,9 @@
       <c r="C329" s="0" t="s">
         <v>800</v>
       </c>
+      <c r="D329" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E329" s="0" t="s">
         <v>801</v>
       </c>
@@ -10726,7 +10957,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>802</v>
       </c>
@@ -10736,6 +10967,9 @@
       <c r="C330" s="0" t="s">
         <v>803</v>
       </c>
+      <c r="D330" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E330" s="0" t="s">
         <v>804</v>
       </c>
@@ -10743,7 +10977,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>805</v>
       </c>
@@ -10752,6 +10986,9 @@
       </c>
       <c r="C331" s="0" t="s">
         <v>806</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E331" s="0" t="s">
         <v>807</v>
@@ -10770,6 +11007,9 @@
       <c r="C332" s="0" t="s">
         <v>809</v>
       </c>
+      <c r="D332" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E332" s="0" t="s">
         <v>810</v>
       </c>
@@ -10777,7 +11017,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>811</v>
       </c>
@@ -10786,6 +11026,9 @@
       </c>
       <c r="C333" s="0" t="s">
         <v>812</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E333" s="0" t="s">
         <v>813</v>
@@ -10804,6 +11047,9 @@
       <c r="C334" s="0" t="s">
         <v>815</v>
       </c>
+      <c r="D334" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E334" s="0" t="s">
         <v>816</v>
       </c>
@@ -10811,7 +11057,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>817</v>
       </c>
@@ -10821,6 +11067,9 @@
       <c r="C335" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="D335" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E335" s="0" t="s">
         <v>818</v>
       </c>
@@ -10828,7 +11077,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>819</v>
       </c>
@@ -10837,6 +11086,9 @@
       </c>
       <c r="C336" s="0" t="s">
         <v>820</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E336" s="0" t="s">
         <v>821</v>
@@ -10855,6 +11107,9 @@
       <c r="C337" s="0" t="s">
         <v>823</v>
       </c>
+      <c r="D337" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E337" s="0" t="s">
         <v>824</v>
       </c>
@@ -10862,7 +11117,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>825</v>
       </c>
@@ -10872,6 +11127,9 @@
       <c r="C338" s="0" t="s">
         <v>826</v>
       </c>
+      <c r="D338" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E338" s="0" t="s">
         <v>827</v>
       </c>
@@ -10879,7 +11137,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>828</v>
       </c>
@@ -10889,6 +11147,9 @@
       <c r="C339" s="0" t="s">
         <v>628</v>
       </c>
+      <c r="D339" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E339" s="0" t="s">
         <v>829</v>
       </c>
@@ -10896,7 +11157,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>830</v>
       </c>
@@ -10905,6 +11166,9 @@
       </c>
       <c r="C340" s="0" t="s">
         <v>831</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E340" s="0" t="s">
         <v>832</v>
@@ -10923,6 +11187,9 @@
       <c r="C341" s="0" t="s">
         <v>834</v>
       </c>
+      <c r="D341" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E341" s="0" t="s">
         <v>835</v>
       </c>
@@ -10930,7 +11197,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>836</v>
       </c>
@@ -10939,6 +11206,9 @@
       </c>
       <c r="C342" s="0" t="s">
         <v>837</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E342" s="0" t="n">
         <v>3113723168</v>
@@ -10957,6 +11227,9 @@
       <c r="C343" s="0" t="s">
         <v>516</v>
       </c>
+      <c r="D343" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E343" s="0" t="s">
         <v>839</v>
       </c>
@@ -10974,6 +11247,9 @@
       <c r="C344" s="0" t="s">
         <v>840</v>
       </c>
+      <c r="D344" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E344" s="0" t="s">
         <v>841</v>
       </c>
@@ -10981,7 +11257,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>707</v>
       </c>
@@ -10991,6 +11267,9 @@
       <c r="C345" s="0" t="s">
         <v>708</v>
       </c>
+      <c r="D345" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E345" s="0" t="s">
         <v>842</v>
       </c>
@@ -10998,7 +11277,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>843</v>
       </c>
@@ -11008,6 +11287,9 @@
       <c r="C346" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="D346" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E346" s="0" t="s">
         <v>844</v>
       </c>
@@ -11015,7 +11297,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>845</v>
       </c>
@@ -11025,6 +11307,9 @@
       <c r="C347" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D347" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E347" s="0" t="s">
         <v>846</v>
       </c>
@@ -11032,7 +11317,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>847</v>
       </c>
@@ -11041,6 +11326,9 @@
       </c>
       <c r="C348" s="0" t="s">
         <v>848</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E348" s="0" t="s">
         <v>849</v>
@@ -11059,6 +11347,9 @@
       <c r="C349" s="0" t="s">
         <v>851</v>
       </c>
+      <c r="D349" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E349" s="0" t="s">
         <v>852</v>
       </c>
@@ -11076,6 +11367,9 @@
       <c r="C350" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D350" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E350" s="0" t="s">
         <v>854</v>
       </c>
@@ -11083,7 +11377,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>335</v>
       </c>
@@ -11097,7 +11391,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>856</v>
       </c>
@@ -11107,6 +11401,9 @@
       <c r="C352" s="0" t="s">
         <v>857</v>
       </c>
+      <c r="D352" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E352" s="0" t="s">
         <v>858</v>
       </c>
@@ -11114,7 +11411,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>560</v>
       </c>
@@ -11124,6 +11421,9 @@
       <c r="C353" s="0" t="s">
         <v>377</v>
       </c>
+      <c r="D353" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E353" s="0" t="s">
         <v>859</v>
       </c>
@@ -11131,7 +11431,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>860</v>
       </c>
@@ -11141,6 +11441,9 @@
       <c r="C354" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="D354" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E354" s="0" t="s">
         <v>861</v>
       </c>
@@ -11148,7 +11451,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>863</v>
       </c>
@@ -11158,6 +11461,9 @@
       <c r="C355" s="0" t="s">
         <v>864</v>
       </c>
+      <c r="D355" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E355" s="0" t="s">
         <v>865</v>
       </c>
@@ -11165,7 +11471,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>866</v>
       </c>
@@ -11174,6 +11480,9 @@
       </c>
       <c r="C356" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E356" s="0" t="s">
         <v>867</v>
@@ -11192,6 +11501,9 @@
       <c r="C357" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D357" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E357" s="0" t="s">
         <v>869</v>
       </c>
@@ -11209,6 +11521,9 @@
       <c r="C358" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="D358" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E358" s="0" t="s">
         <v>871</v>
       </c>
@@ -11226,6 +11541,9 @@
       <c r="C359" s="0" t="s">
         <v>602</v>
       </c>
+      <c r="D359" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E359" s="0" t="s">
         <v>873</v>
       </c>
@@ -11233,7 +11551,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>458</v>
       </c>
@@ -11243,6 +11561,9 @@
       <c r="C360" s="0" t="s">
         <v>874</v>
       </c>
+      <c r="D360" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E360" s="0" t="s">
         <v>875</v>
       </c>
@@ -11250,7 +11571,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>510</v>
       </c>
@@ -11259,6 +11580,9 @@
       </c>
       <c r="C361" s="0" t="s">
         <v>774</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E361" s="0" t="s">
         <v>876</v>
@@ -11277,6 +11601,9 @@
       <c r="C362" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="D362" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E362" s="0" t="s">
         <v>878</v>
       </c>
@@ -11294,6 +11621,9 @@
       <c r="C363" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D363" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E363" s="0" t="s">
         <v>880</v>
       </c>
@@ -11311,6 +11641,9 @@
       <c r="C364" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D364" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E364" s="0" t="s">
         <v>882</v>
       </c>
@@ -11328,6 +11661,9 @@
       <c r="C365" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D365" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E365" s="0" t="s">
         <v>884</v>
       </c>
@@ -11345,6 +11681,9 @@
       <c r="C366" s="0" t="s">
         <v>516</v>
       </c>
+      <c r="D366" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E366" s="0" t="s">
         <v>886</v>
       </c>
@@ -11362,6 +11701,9 @@
       <c r="C367" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D367" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E367" s="0" t="s">
         <v>888</v>
       </c>
@@ -11369,7 +11711,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>889</v>
       </c>
@@ -11378,6 +11720,9 @@
       </c>
       <c r="C368" s="0" t="s">
         <v>141</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E368" s="0" t="s">
         <v>890</v>
@@ -11396,6 +11741,9 @@
       <c r="C369" s="0" t="s">
         <v>404</v>
       </c>
+      <c r="D369" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E369" s="0" t="s">
         <v>891</v>
       </c>
@@ -11403,7 +11751,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>892</v>
       </c>
@@ -11413,6 +11761,9 @@
       <c r="C370" s="0" t="s">
         <v>141</v>
       </c>
+      <c r="D370" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E370" s="0" t="s">
         <v>893</v>
       </c>
@@ -11420,7 +11771,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
         <v>502</v>
       </c>
@@ -11430,6 +11781,9 @@
       <c r="C371" s="0" t="s">
         <v>894</v>
       </c>
+      <c r="D371" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E371" s="0" t="s">
         <v>895</v>
       </c>
@@ -11437,7 +11791,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>896</v>
       </c>
@@ -11447,6 +11801,9 @@
       <c r="C372" s="0" t="s">
         <v>897</v>
       </c>
+      <c r="D372" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E372" s="0" t="s">
         <v>898</v>
       </c>
@@ -11454,7 +11811,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>899</v>
       </c>
@@ -11464,6 +11821,9 @@
       <c r="C373" s="0" t="s">
         <v>900</v>
       </c>
+      <c r="D373" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E373" s="0" t="s">
         <v>901</v>
       </c>
@@ -11471,7 +11831,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>902</v>
       </c>
@@ -11481,6 +11841,9 @@
       <c r="C374" s="0" t="s">
         <v>903</v>
       </c>
+      <c r="D374" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E374" s="0" t="s">
         <v>904</v>
       </c>
@@ -11488,7 +11851,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>906</v>
       </c>
@@ -11498,6 +11861,9 @@
       <c r="C375" s="0" t="s">
         <v>628</v>
       </c>
+      <c r="D375" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E375" s="0" t="s">
         <v>907</v>
       </c>
@@ -11505,7 +11871,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>908</v>
       </c>
@@ -11515,6 +11881,9 @@
       <c r="C376" s="0" t="s">
         <v>909</v>
       </c>
+      <c r="D376" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E376" s="0" t="s">
         <v>910</v>
       </c>
@@ -11522,7 +11891,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>911</v>
       </c>
@@ -11532,6 +11901,9 @@
       <c r="C377" s="0" t="s">
         <v>912</v>
       </c>
+      <c r="D377" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E377" s="0" t="s">
         <v>913</v>
       </c>
@@ -11539,7 +11911,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>914</v>
       </c>
@@ -11549,6 +11921,9 @@
       <c r="C378" s="0" t="s">
         <v>915</v>
       </c>
+      <c r="D378" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E378" s="0" t="s">
         <v>916</v>
       </c>
@@ -11556,7 +11931,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>917</v>
       </c>
@@ -11566,6 +11941,9 @@
       <c r="C379" s="0" t="s">
         <v>918</v>
       </c>
+      <c r="D379" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E379" s="0" t="s">
         <v>919</v>
       </c>
@@ -11573,7 +11951,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
         <v>920</v>
       </c>
@@ -11583,6 +11961,9 @@
       <c r="C380" s="0" t="s">
         <v>921</v>
       </c>
+      <c r="D380" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E380" s="0" t="s">
         <v>922</v>
       </c>
@@ -11590,7 +11971,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
         <v>923</v>
       </c>
@@ -11599,6 +11980,9 @@
       </c>
       <c r="C381" s="0" t="s">
         <v>924</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E381" s="0" t="s">
         <v>925</v>
@@ -11617,6 +12001,9 @@
       <c r="C382" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="D382" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E382" s="0" t="s">
         <v>927</v>
       </c>
@@ -11634,6 +12021,9 @@
       <c r="C383" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="D383" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E383" s="2" t="s">
         <v>927</v>
       </c>
@@ -11651,6 +12041,9 @@
       <c r="C384" s="0" t="s">
         <v>930</v>
       </c>
+      <c r="D384" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E384" s="0" t="s">
         <v>931</v>
       </c>
@@ -11668,6 +12061,9 @@
       <c r="C385" s="0" t="s">
         <v>851</v>
       </c>
+      <c r="D385" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E385" s="0" t="s">
         <v>933</v>
       </c>
@@ -11685,6 +12081,9 @@
       <c r="C386" s="0" t="s">
         <v>851</v>
       </c>
+      <c r="D386" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E386" s="0" t="s">
         <v>935</v>
       </c>
@@ -11702,6 +12101,9 @@
       <c r="C387" s="0" t="s">
         <v>937</v>
       </c>
+      <c r="D387" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E387" s="0" t="s">
         <v>938</v>
       </c>
@@ -11719,6 +12121,9 @@
       <c r="C388" s="0" t="s">
         <v>940</v>
       </c>
+      <c r="D388" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E388" s="0" t="s">
         <v>941</v>
       </c>
@@ -11736,6 +12141,9 @@
       <c r="C389" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="D389" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E389" s="0" t="s">
         <v>943</v>
       </c>
@@ -11753,6 +12161,9 @@
       <c r="C390" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D390" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E390" s="0" t="s">
         <v>945</v>
       </c>
@@ -11770,6 +12181,9 @@
       <c r="C391" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D391" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E391" s="0" t="s">
         <v>948</v>
       </c>
@@ -11787,6 +12201,9 @@
       <c r="C392" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D392" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E392" s="0" t="s">
         <v>950</v>
       </c>
@@ -11804,6 +12221,9 @@
       <c r="C393" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D393" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E393" s="0" t="s">
         <v>952</v>
       </c>
@@ -11821,6 +12241,9 @@
       <c r="C394" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D394" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E394" s="0" t="s">
         <v>954</v>
       </c>
@@ -11838,6 +12261,9 @@
       <c r="C395" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D395" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E395" s="0" t="s">
         <v>956</v>
       </c>
@@ -11855,6 +12281,9 @@
       <c r="C396" s="0" t="s">
         <v>404</v>
       </c>
+      <c r="D396" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E396" s="0" t="s">
         <v>958</v>
       </c>
@@ -11872,6 +12301,9 @@
       <c r="C397" s="0" t="s">
         <v>404</v>
       </c>
+      <c r="D397" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E397" s="0" t="s">
         <v>961</v>
       </c>
@@ -11889,6 +12321,9 @@
       <c r="C398" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D398" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E398" s="0" t="s">
         <v>963</v>
       </c>
@@ -11906,6 +12341,9 @@
       <c r="C399" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D399" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E399" s="0" t="s">
         <v>965</v>
       </c>
@@ -11923,6 +12361,9 @@
       <c r="C400" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D400" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E400" s="0" t="s">
         <v>967</v>
       </c>
@@ -11940,6 +12381,9 @@
       <c r="C401" s="0" t="s">
         <v>969</v>
       </c>
+      <c r="D401" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E401" s="0" t="s">
         <v>970</v>
       </c>
@@ -11947,7 +12391,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>971</v>
       </c>
@@ -11957,6 +12401,9 @@
       <c r="C402" s="0" t="s">
         <v>972</v>
       </c>
+      <c r="D402" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E402" s="0" t="s">
         <v>973</v>
       </c>
@@ -11964,7 +12411,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>974</v>
       </c>
@@ -11973,6 +12420,9 @@
       </c>
       <c r="C403" s="0" t="s">
         <v>658</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E403" s="0" t="s">
         <v>975</v>
@@ -11991,6 +12441,9 @@
       <c r="C404" s="0" t="s">
         <v>978</v>
       </c>
+      <c r="D404" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E404" s="0" t="s">
         <v>979</v>
       </c>
@@ -11998,7 +12451,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>980</v>
       </c>
@@ -12008,6 +12461,9 @@
       <c r="C405" s="0" t="s">
         <v>981</v>
       </c>
+      <c r="D405" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E405" s="0" t="s">
         <v>982</v>
       </c>
@@ -12015,7 +12471,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>983</v>
       </c>
@@ -12025,6 +12481,9 @@
       <c r="C406" s="0" t="s">
         <v>658</v>
       </c>
+      <c r="D406" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E406" s="0" t="s">
         <v>984</v>
       </c>
@@ -12032,7 +12491,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>985</v>
       </c>
@@ -12042,6 +12501,9 @@
       <c r="C407" s="0" t="s">
         <v>658</v>
       </c>
+      <c r="D407" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E407" s="0" t="s">
         <v>986</v>
       </c>
@@ -12049,7 +12511,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
         <v>987</v>
       </c>
@@ -12059,6 +12521,9 @@
       <c r="C408" s="0" t="s">
         <v>658</v>
       </c>
+      <c r="D408" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E408" s="0" t="s">
         <v>988</v>
       </c>
@@ -12066,7 +12531,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>989</v>
       </c>
@@ -12076,6 +12541,9 @@
       <c r="C409" s="0" t="s">
         <v>990</v>
       </c>
+      <c r="D409" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E409" s="0" t="s">
         <v>991</v>
       </c>
@@ -12083,7 +12551,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>993</v>
       </c>
@@ -12093,6 +12561,9 @@
       <c r="C410" s="0" t="s">
         <v>990</v>
       </c>
+      <c r="D410" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E410" s="0" t="s">
         <v>994</v>
       </c>
@@ -12100,7 +12571,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>995</v>
       </c>
@@ -12109,6 +12580,9 @@
       </c>
       <c r="C411" s="0" t="s">
         <v>996</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E411" s="0" t="s">
         <v>997</v>
@@ -12127,6 +12601,9 @@
       <c r="C412" s="0" t="s">
         <v>999</v>
       </c>
+      <c r="D412" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E412" s="0" t="s">
         <v>1000</v>
       </c>
@@ -12134,7 +12611,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>1001</v>
       </c>
@@ -12143,6 +12620,9 @@
       </c>
       <c r="C413" s="0" t="s">
         <v>628</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E413" s="0" t="s">
         <v>1002</v>
@@ -12161,6 +12641,9 @@
       <c r="C414" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D414" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E414" s="0" t="s">
         <v>1005</v>
       </c>
@@ -12178,6 +12661,9 @@
       <c r="C415" s="0" t="s">
         <v>1007</v>
       </c>
+      <c r="D415" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E415" s="0" t="s">
         <v>1008</v>
       </c>
@@ -12195,6 +12681,9 @@
       <c r="C416" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D416" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E416" s="0" t="s">
         <v>1010</v>
       </c>
@@ -12202,7 +12691,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
         <v>1011</v>
       </c>
@@ -12211,6 +12700,9 @@
       </c>
       <c r="C417" s="0" t="s">
         <v>141</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E417" s="0" t="s">
         <v>1012</v>
@@ -12229,6 +12721,9 @@
       <c r="C418" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D418" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E418" s="0" t="s">
         <v>1014</v>
       </c>
@@ -12246,6 +12741,9 @@
       <c r="C419" s="0" t="s">
         <v>321</v>
       </c>
+      <c r="D419" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E419" s="0" t="s">
         <v>1016</v>
       </c>
@@ -12263,6 +12761,9 @@
       <c r="C420" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D420" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E420" s="3" t="s">
         <v>1018</v>
       </c>
@@ -12280,6 +12781,9 @@
       <c r="C421" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D421" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E421" s="0" t="s">
         <v>1020</v>
       </c>
@@ -12297,6 +12801,9 @@
       <c r="C422" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="D422" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E422" s="0" t="s">
         <v>1022</v>
       </c>
@@ -12314,6 +12821,9 @@
       <c r="C423" s="0" t="s">
         <v>1024</v>
       </c>
+      <c r="D423" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E423" s="0" t="s">
         <v>1025</v>
       </c>
@@ -12331,6 +12841,9 @@
       <c r="C424" s="0" t="s">
         <v>404</v>
       </c>
+      <c r="D424" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E424" s="0" t="s">
         <v>1027</v>
       </c>
@@ -12348,6 +12861,9 @@
       <c r="C425" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="D425" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E425" s="0" t="s">
         <v>1029</v>
       </c>
@@ -12365,6 +12881,9 @@
       <c r="C426" s="0" t="s">
         <v>404</v>
       </c>
+      <c r="D426" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E426" s="0" t="s">
         <v>1031</v>
       </c>
@@ -12372,7 +12891,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
         <v>1032</v>
       </c>
@@ -12381,6 +12900,9 @@
       </c>
       <c r="C427" s="0" t="s">
         <v>1033</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E427" s="0" t="s">
         <v>1034</v>
@@ -12399,6 +12921,9 @@
       <c r="C428" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D428" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E428" s="0" t="s">
         <v>1035</v>
       </c>
@@ -12416,6 +12941,9 @@
       <c r="C429" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D429" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E429" s="0" t="s">
         <v>1037</v>
       </c>
@@ -12433,6 +12961,9 @@
       <c r="C430" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="D430" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E430" s="2" t="s">
         <v>1037</v>
       </c>
@@ -12450,6 +12981,9 @@
       <c r="C431" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="D431" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E431" s="0" t="s">
         <v>1025</v>
       </c>
@@ -12467,6 +13001,9 @@
       <c r="C432" s="0" t="s">
         <v>1039</v>
       </c>
+      <c r="D432" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E432" s="0" t="s">
         <v>1040</v>
       </c>
@@ -12484,6 +13021,9 @@
       <c r="C433" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D433" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E433" s="0" t="s">
         <v>1042</v>
       </c>
@@ -12501,6 +13041,9 @@
       <c r="C434" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D434" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E434" s="0" t="s">
         <v>1045</v>
       </c>
@@ -12518,6 +13061,9 @@
       <c r="C435" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D435" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E435" s="0" t="s">
         <v>1047</v>
       </c>
@@ -12535,6 +13081,9 @@
       <c r="C436" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D436" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E436" s="0" t="s">
         <v>1049</v>
       </c>
@@ -12552,6 +13101,9 @@
       <c r="C437" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D437" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E437" s="0" t="s">
         <v>1051</v>
       </c>
@@ -12569,6 +13121,9 @@
       <c r="C438" s="0" t="s">
         <v>265</v>
       </c>
+      <c r="D438" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E438" s="0" t="s">
         <v>1053</v>
       </c>
@@ -12586,6 +13141,9 @@
       <c r="C439" s="0" t="s">
         <v>1055</v>
       </c>
+      <c r="D439" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E439" s="0" t="s">
         <v>1056</v>
       </c>
@@ -12603,6 +13161,9 @@
       <c r="C440" s="0" t="s">
         <v>1059</v>
       </c>
+      <c r="D440" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E440" s="0" t="s">
         <v>1060</v>
       </c>
@@ -12620,6 +13181,9 @@
       <c r="C441" s="0" t="s">
         <v>1062</v>
       </c>
+      <c r="D441" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E441" s="0" t="s">
         <v>1063</v>
       </c>
@@ -12637,6 +13201,9 @@
       <c r="C442" s="0" t="s">
         <v>1065</v>
       </c>
+      <c r="D442" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E442" s="0" t="s">
         <v>1066</v>
       </c>
@@ -12654,6 +13221,9 @@
       <c r="C443" s="0" t="s">
         <v>1068</v>
       </c>
+      <c r="D443" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E443" s="0" t="s">
         <v>1069</v>
       </c>
@@ -12671,6 +13241,9 @@
       <c r="C444" s="0" t="s">
         <v>1071</v>
       </c>
+      <c r="D444" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E444" s="0" t="s">
         <v>1072</v>
       </c>
@@ -12678,7 +13251,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>1074</v>
       </c>
@@ -12687,6 +13260,9 @@
       </c>
       <c r="C445" s="0" t="s">
         <v>1075</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E445" s="0" t="s">
         <v>1076</v>
@@ -12705,6 +13281,9 @@
       <c r="C446" s="0" t="s">
         <v>1078</v>
       </c>
+      <c r="D446" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E446" s="0" t="s">
         <v>1079</v>
       </c>
@@ -12712,7 +13291,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>1080</v>
       </c>
@@ -12721,6 +13300,9 @@
       </c>
       <c r="C447" s="0" t="s">
         <v>1081</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E447" s="0" t="s">
         <v>1082</v>
@@ -12739,6 +13321,9 @@
       <c r="C448" s="0" t="s">
         <v>1084</v>
       </c>
+      <c r="D448" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E448" s="0" t="s">
         <v>1085</v>
       </c>
@@ -12756,6 +13341,9 @@
       <c r="C449" s="2" t="s">
         <v>1084</v>
       </c>
+      <c r="D449" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E449" s="2" t="s">
         <v>1085</v>
       </c>
@@ -12763,7 +13351,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>1086</v>
       </c>
@@ -12773,6 +13361,9 @@
       <c r="C450" s="0" t="s">
         <v>1087</v>
       </c>
+      <c r="D450" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E450" s="0" t="s">
         <v>1088</v>
       </c>
@@ -12780,7 +13371,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>1089</v>
       </c>
@@ -12790,6 +13381,9 @@
       <c r="C451" s="0" t="s">
         <v>1090</v>
       </c>
+      <c r="D451" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E451" s="0" t="s">
         <v>1091</v>
       </c>
@@ -12797,7 +13391,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>1092</v>
       </c>
@@ -12807,6 +13401,9 @@
       <c r="C452" s="0" t="s">
         <v>1093</v>
       </c>
+      <c r="D452" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E452" s="0" t="s">
         <v>1094</v>
       </c>
@@ -12814,7 +13411,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>1095</v>
       </c>
@@ -12824,6 +13421,9 @@
       <c r="C453" s="0" t="s">
         <v>1096</v>
       </c>
+      <c r="D453" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E453" s="0" t="s">
         <v>1097</v>
       </c>
@@ -12831,7 +13431,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>1098</v>
       </c>
@@ -12841,6 +13441,9 @@
       <c r="C454" s="0" t="s">
         <v>1099</v>
       </c>
+      <c r="D454" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E454" s="0" t="s">
         <v>1100</v>
       </c>
@@ -12848,7 +13451,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>1101</v>
       </c>
@@ -12857,6 +13460,9 @@
       </c>
       <c r="C455" s="0" t="s">
         <v>1102</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E455" s="0" t="s">
         <v>1103</v>
@@ -12875,6 +13481,9 @@
       <c r="C456" s="0" t="s">
         <v>1105</v>
       </c>
+      <c r="D456" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E456" s="0" t="s">
         <v>1106</v>
       </c>
@@ -12892,6 +13501,9 @@
       <c r="C457" s="0" t="s">
         <v>1109</v>
       </c>
+      <c r="D457" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E457" s="0" t="s">
         <v>1110</v>
       </c>
@@ -12909,6 +13521,9 @@
       <c r="C458" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="D458" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E458" s="0" t="s">
         <v>1112</v>
       </c>
@@ -12926,6 +13541,9 @@
       <c r="C459" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="D459" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E459" s="0" t="s">
         <v>1114</v>
       </c>
@@ -12943,6 +13561,9 @@
       <c r="C460" s="0" t="s">
         <v>1116</v>
       </c>
+      <c r="D460" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E460" s="0" t="s">
         <v>1117</v>
       </c>
@@ -12960,6 +13581,9 @@
       <c r="C461" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="D461" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E461" s="0" t="s">
         <v>1119</v>
       </c>
@@ -12977,6 +13601,9 @@
       <c r="C462" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="D462" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E462" s="0" t="s">
         <v>1121</v>
       </c>
@@ -12994,6 +13621,9 @@
       <c r="C463" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D463" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E463" s="0" t="s">
         <v>1123</v>
       </c>
@@ -13011,6 +13641,9 @@
       <c r="C464" s="0" t="s">
         <v>1125</v>
       </c>
+      <c r="D464" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E464" s="0" t="s">
         <v>1126</v>
       </c>
@@ -13028,6 +13661,9 @@
       <c r="C465" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D465" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E465" s="0" t="s">
         <v>1128</v>
       </c>
@@ -13045,6 +13681,9 @@
       <c r="C466" s="0" t="s">
         <v>1131</v>
       </c>
+      <c r="D466" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E466" s="0" t="s">
         <v>1132</v>
       </c>
@@ -13062,6 +13701,9 @@
       <c r="C467" s="0" t="s">
         <v>602</v>
       </c>
+      <c r="D467" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E467" s="0" t="s">
         <v>1133</v>
       </c>
@@ -13079,6 +13721,9 @@
       <c r="C468" s="0" t="s">
         <v>851</v>
       </c>
+      <c r="D468" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E468" s="0" t="s">
         <v>1135</v>
       </c>
@@ -13086,7 +13731,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>1136</v>
       </c>
@@ -13096,6 +13741,9 @@
       <c r="C469" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D469" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E469" s="0" t="s">
         <v>1137</v>
       </c>
@@ -13103,7 +13751,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
         <v>1139</v>
       </c>
@@ -13113,6 +13761,9 @@
       <c r="C470" s="0" t="s">
         <v>1140</v>
       </c>
+      <c r="D470" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E470" s="0" t="s">
         <v>1141</v>
       </c>
@@ -13120,7 +13771,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>1142</v>
       </c>
@@ -13130,6 +13781,9 @@
       <c r="C471" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D471" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E471" s="0" t="s">
         <v>1143</v>
       </c>
@@ -13137,7 +13791,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>1144</v>
       </c>
@@ -13147,6 +13801,9 @@
       <c r="C472" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D472" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E472" s="0" t="s">
         <v>1145</v>
       </c>
@@ -13154,7 +13811,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>1146</v>
       </c>
@@ -13164,6 +13821,9 @@
       <c r="C473" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D473" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E473" s="0" t="s">
         <v>1147</v>
       </c>
@@ -13171,7 +13831,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
         <v>1148</v>
       </c>
@@ -13181,6 +13841,9 @@
       <c r="C474" s="0" t="s">
         <v>1149</v>
       </c>
+      <c r="D474" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E474" s="0" t="s">
         <v>1150</v>
       </c>
@@ -13188,7 +13851,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
         <v>1152</v>
       </c>
@@ -13198,6 +13861,9 @@
       <c r="C475" s="0" t="s">
         <v>1153</v>
       </c>
+      <c r="D475" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E475" s="0" t="s">
         <v>1154</v>
       </c>
@@ -13205,7 +13871,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
         <v>1155</v>
       </c>
@@ -13215,6 +13881,9 @@
       <c r="C476" s="0" t="s">
         <v>1149</v>
       </c>
+      <c r="D476" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E476" s="0" t="s">
         <v>1156</v>
       </c>
@@ -13222,7 +13891,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
         <v>1157</v>
       </c>
@@ -13232,6 +13901,9 @@
       <c r="C477" s="0" t="s">
         <v>1149</v>
       </c>
+      <c r="D477" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E477" s="0" t="s">
         <v>1158</v>
       </c>
@@ -13239,7 +13911,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
         <v>1159</v>
       </c>
@@ -13248,6 +13920,9 @@
       </c>
       <c r="C478" s="0" t="s">
         <v>1160</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E478" s="0" t="s">
         <v>1161</v>
@@ -13266,6 +13941,9 @@
       <c r="C479" s="0" t="s">
         <v>1163</v>
       </c>
+      <c r="D479" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E479" s="0" t="s">
         <v>1164</v>
       </c>
@@ -13283,6 +13961,9 @@
       <c r="C480" s="0" t="s">
         <v>404</v>
       </c>
+      <c r="D480" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E480" s="0" t="s">
         <v>1166</v>
       </c>
@@ -13300,6 +13981,9 @@
       <c r="C481" s="0" t="s">
         <v>1168</v>
       </c>
+      <c r="D481" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E481" s="0" t="s">
         <v>1169</v>
       </c>
@@ -13317,6 +14001,9 @@
       <c r="C482" s="0" t="s">
         <v>1171</v>
       </c>
+      <c r="D482" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E482" s="0" t="s">
         <v>1172</v>
       </c>
@@ -13334,6 +14021,9 @@
       <c r="C483" s="0" t="s">
         <v>1174</v>
       </c>
+      <c r="D483" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E483" s="0" t="s">
         <v>1175</v>
       </c>
@@ -13341,7 +14031,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
         <v>1176</v>
       </c>
@@ -13350,6 +14040,9 @@
       </c>
       <c r="C484" s="0" t="s">
         <v>1177</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E484" s="0" t="s">
         <v>1178</v>
@@ -13368,6 +14061,9 @@
       <c r="C485" s="0" t="s">
         <v>1171</v>
       </c>
+      <c r="D485" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E485" s="0" t="s">
         <v>1180</v>
       </c>
@@ -13385,6 +14081,9 @@
       <c r="C486" s="0" t="s">
         <v>1171</v>
       </c>
+      <c r="D486" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E486" s="0" t="s">
         <v>1182</v>
       </c>
@@ -13402,6 +14101,9 @@
       <c r="C487" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="D487" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E487" s="0" t="s">
         <v>1183</v>
       </c>
@@ -13419,6 +14121,9 @@
       <c r="C488" s="0" t="s">
         <v>1185</v>
       </c>
+      <c r="D488" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E488" s="0" t="s">
         <v>1186</v>
       </c>
@@ -13436,6 +14141,9 @@
       <c r="C489" s="0" t="s">
         <v>1189</v>
       </c>
+      <c r="D489" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E489" s="0" t="s">
         <v>1190</v>
       </c>
@@ -13453,6 +14161,9 @@
       <c r="C490" s="0" t="s">
         <v>1192</v>
       </c>
+      <c r="D490" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E490" s="0" t="s">
         <v>1193</v>
       </c>
@@ -13470,6 +14181,9 @@
       <c r="C491" s="0" t="s">
         <v>1195</v>
       </c>
+      <c r="D491" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E491" s="0" t="s">
         <v>1196</v>
       </c>
@@ -13477,7 +14191,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
         <v>1197</v>
       </c>
@@ -13487,6 +14201,9 @@
       <c r="C492" s="0" t="s">
         <v>1198</v>
       </c>
+      <c r="D492" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E492" s="0" t="s">
         <v>1199</v>
       </c>
@@ -13494,7 +14211,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
         <v>1200</v>
       </c>
@@ -13504,6 +14221,9 @@
       <c r="C493" s="0" t="s">
         <v>1201</v>
       </c>
+      <c r="D493" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E493" s="0" t="s">
         <v>1202</v>
       </c>
@@ -13511,7 +14231,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
         <v>1203</v>
       </c>
@@ -13521,6 +14241,9 @@
       <c r="C494" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="D494" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E494" s="0" t="s">
         <v>1204</v>
       </c>
@@ -13528,7 +14251,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
         <v>1205</v>
       </c>
@@ -13538,6 +14261,9 @@
       <c r="C495" s="0" t="s">
         <v>1206</v>
       </c>
+      <c r="D495" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E495" s="0" t="s">
         <v>1207</v>
       </c>
@@ -13545,7 +14271,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="s">
         <v>1209</v>
       </c>
@@ -13555,6 +14281,9 @@
       <c r="C496" s="0" t="s">
         <v>1210</v>
       </c>
+      <c r="D496" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E496" s="0" t="s">
         <v>1211</v>
       </c>
@@ -13562,7 +14291,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
         <v>1212</v>
       </c>
@@ -13571,6 +14300,9 @@
       </c>
       <c r="C497" s="0" t="s">
         <v>1213</v>
+      </c>
+      <c r="D497" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E497" s="0" t="s">
         <v>1214</v>
@@ -13589,6 +14321,9 @@
       <c r="C498" s="3" t="s">
         <v>1216</v>
       </c>
+      <c r="D498" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E498" s="0" t="s">
         <v>1217</v>
       </c>
@@ -13596,7 +14331,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
         <v>1218</v>
       </c>
@@ -13605,6 +14340,9 @@
       </c>
       <c r="C499" s="0" t="s">
         <v>1219</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E499" s="0" t="s">
         <v>1220</v>
@@ -13623,6 +14361,9 @@
       <c r="C500" s="0" t="s">
         <v>1222</v>
       </c>
+      <c r="D500" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E500" s="0" t="s">
         <v>1223</v>
       </c>
@@ -13630,7 +14371,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="229.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>1224</v>
       </c>
@@ -13640,6 +14381,9 @@
       <c r="C501" s="3" t="s">
         <v>1225</v>
       </c>
+      <c r="D501" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E501" s="0" t="s">
         <v>1226</v>
       </c>
@@ -13647,7 +14391,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
         <v>1227</v>
       </c>
@@ -13656,6 +14400,9 @@
       </c>
       <c r="C502" s="3" t="s">
         <v>1228</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E502" s="0" t="s">
         <v>1229</v>
@@ -13674,6 +14421,9 @@
       <c r="C503" s="3" t="s">
         <v>1231</v>
       </c>
+      <c r="D503" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E503" s="0" t="s">
         <v>1232</v>
       </c>
@@ -13681,7 +14431,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
         <v>1233</v>
       </c>
@@ -13691,6 +14441,9 @@
       <c r="C504" s="0" t="s">
         <v>1234</v>
       </c>
+      <c r="D504" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E504" s="0" t="s">
         <v>1235</v>
       </c>
@@ -13698,7 +14451,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
         <v>1237</v>
       </c>
@@ -13708,6 +14461,9 @@
       <c r="C505" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="D505" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E505" s="0" t="s">
         <v>1238</v>
       </c>
@@ -13715,7 +14471,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
         <v>1239</v>
       </c>
@@ -13724,6 +14480,9 @@
       </c>
       <c r="C506" s="0" t="s">
         <v>1240</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E506" s="0" t="s">
         <v>1241</v>
@@ -13742,6 +14501,9 @@
       <c r="C507" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D507" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E507" s="3" t="s">
         <v>1243</v>
       </c>
@@ -13749,7 +14511,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
         <v>1244</v>
       </c>
@@ -13759,6 +14521,9 @@
       <c r="C508" s="3" t="s">
         <v>1245</v>
       </c>
+      <c r="D508" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E508" s="0" t="s">
         <v>1246</v>
       </c>
@@ -13766,7 +14531,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
         <v>1247</v>
       </c>
@@ -13776,6 +14541,9 @@
       <c r="C509" s="0" t="s">
         <v>1248</v>
       </c>
+      <c r="D509" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E509" s="3" t="s">
         <v>1249</v>
       </c>
@@ -13783,7 +14551,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
         <v>1250</v>
       </c>
@@ -13793,6 +14561,9 @@
       <c r="C510" s="0" t="s">
         <v>1248</v>
       </c>
+      <c r="D510" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E510" s="0" t="s">
         <v>1251</v>
       </c>
@@ -13800,7 +14571,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
         <v>1252</v>
       </c>
@@ -13809,6 +14580,9 @@
       </c>
       <c r="C511" s="0" t="s">
         <v>1253</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E511" s="0" t="s">
         <v>1254</v>
@@ -13827,6 +14601,9 @@
       <c r="C512" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="D512" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E512" s="0" t="s">
         <v>1257</v>
       </c>
@@ -13844,6 +14621,9 @@
       <c r="C513" s="0" t="s">
         <v>1259</v>
       </c>
+      <c r="D513" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E513" s="0" t="s">
         <v>1260</v>
       </c>
@@ -13861,6 +14641,9 @@
       <c r="C514" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="D514" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E514" s="0" t="s">
         <v>1262</v>
       </c>
@@ -13878,6 +14661,9 @@
       <c r="C515" s="0" t="s">
         <v>1264</v>
       </c>
+      <c r="D515" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E515" s="0" t="s">
         <v>1265</v>
       </c>
@@ -13885,7 +14671,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
         <v>971</v>
       </c>
@@ -13894,6 +14680,9 @@
       </c>
       <c r="C516" s="0" t="s">
         <v>1266</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E516" s="0" t="s">
         <v>1267</v>
@@ -13912,6 +14701,9 @@
       <c r="C517" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D517" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E517" s="0" t="s">
         <v>1269</v>
       </c>
@@ -13929,6 +14721,9 @@
       <c r="C518" s="0" t="s">
         <v>937</v>
       </c>
+      <c r="D518" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E518" s="0" t="s">
         <v>1272</v>
       </c>
@@ -13946,6 +14741,9 @@
       <c r="C519" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D519" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E519" s="0" t="s">
         <v>1274</v>
       </c>
@@ -13953,7 +14751,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>1275</v>
       </c>
@@ -13962,6 +14760,9 @@
       </c>
       <c r="C520" s="0" t="s">
         <v>1276</v>
+      </c>
+      <c r="D520" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E520" s="0" t="s">
         <v>1277</v>
@@ -13980,6 +14781,9 @@
       <c r="C521" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="D521" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E521" s="0" t="s">
         <v>1279</v>
       </c>
@@ -13997,6 +14801,9 @@
       <c r="C522" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D522" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E522" s="0" t="s">
         <v>1281</v>
       </c>
@@ -14014,6 +14821,9 @@
       <c r="C523" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D523" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E523" s="0" t="s">
         <v>1283</v>
       </c>
@@ -14031,6 +14841,9 @@
       <c r="C524" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D524" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E524" s="0" t="s">
         <v>1285</v>
       </c>
@@ -14048,6 +14861,9 @@
       <c r="C525" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D525" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E525" s="2" t="s">
         <v>1285</v>
       </c>
@@ -14065,6 +14881,9 @@
       <c r="C526" s="2" t="s">
         <v>1287</v>
       </c>
+      <c r="D526" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E526" s="2" t="s">
         <v>1288</v>
       </c>
@@ -14082,6 +14901,9 @@
       <c r="C527" s="2" t="s">
         <v>1287</v>
       </c>
+      <c r="D527" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E527" s="2" t="s">
         <v>1288</v>
       </c>
@@ -14099,6 +14921,9 @@
       <c r="C528" s="2" t="s">
         <v>1287</v>
       </c>
+      <c r="D528" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E528" s="2" t="s">
         <v>1288</v>
       </c>
@@ -14116,6 +14941,9 @@
       <c r="C529" s="2" t="s">
         <v>1287</v>
       </c>
+      <c r="D529" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E529" s="2" t="s">
         <v>1288</v>
       </c>
@@ -14133,6 +14961,9 @@
       <c r="C530" s="2" t="s">
         <v>1287</v>
       </c>
+      <c r="D530" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E530" s="2" t="s">
         <v>1288</v>
       </c>
@@ -14150,6 +14981,9 @@
       <c r="C531" s="2" t="s">
         <v>1287</v>
       </c>
+      <c r="D531" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E531" s="2" t="s">
         <v>1288</v>
       </c>
@@ -14167,6 +15001,9 @@
       <c r="C532" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D532" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E532" s="0" t="s">
         <v>1290</v>
       </c>
@@ -14184,6 +15021,9 @@
       <c r="C533" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D533" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E533" s="2" t="s">
         <v>1290</v>
       </c>
@@ -14201,6 +15041,9 @@
       <c r="C534" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D534" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E534" s="0" t="s">
         <v>1292</v>
       </c>
@@ -14208,7 +15051,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
         <v>1293</v>
       </c>
@@ -14218,6 +15061,9 @@
       <c r="C535" s="0" t="s">
         <v>1294</v>
       </c>
+      <c r="D535" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E535" s="0" t="s">
         <v>1295</v>
       </c>
@@ -14225,7 +15071,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
         <v>1297</v>
       </c>
@@ -14235,6 +15081,9 @@
       <c r="C536" s="0" t="s">
         <v>1298</v>
       </c>
+      <c r="D536" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E536" s="3" t="s">
         <v>1299</v>
       </c>
@@ -14242,7 +15091,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
         <v>1300</v>
       </c>
@@ -14251,6 +15100,9 @@
       </c>
       <c r="C537" s="0" t="s">
         <v>1301</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E537" s="0" t="s">
         <v>1302</v>
@@ -14269,6 +15121,9 @@
       <c r="C538" s="0" t="s">
         <v>1304</v>
       </c>
+      <c r="D538" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E538" s="0" t="s">
         <v>1305</v>
       </c>
@@ -14286,6 +15141,9 @@
       <c r="C539" s="2" t="s">
         <v>1304</v>
       </c>
+      <c r="D539" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E539" s="2" t="s">
         <v>1305</v>
       </c>
@@ -14303,6 +15161,9 @@
       <c r="C540" s="2" t="s">
         <v>1304</v>
       </c>
+      <c r="D540" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E540" s="2" t="s">
         <v>1305</v>
       </c>
@@ -14310,7 +15171,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
         <v>1306</v>
       </c>
@@ -14319,6 +15180,9 @@
       </c>
       <c r="C541" s="3" t="s">
         <v>1307</v>
+      </c>
+      <c r="D541" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E541" s="0" t="s">
         <v>1308</v>
@@ -14337,6 +15201,9 @@
       <c r="C542" s="0" t="s">
         <v>1310</v>
       </c>
+      <c r="D542" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E542" s="0" t="s">
         <v>1311</v>
       </c>
@@ -14344,7 +15211,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
         <v>1312</v>
       </c>
@@ -14353,6 +15220,9 @@
       </c>
       <c r="C543" s="0" t="s">
         <v>1313</v>
+      </c>
+      <c r="D543" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E543" s="0" t="s">
         <v>1314</v>
@@ -14371,6 +15241,9 @@
       <c r="C544" s="0" t="s">
         <v>1316</v>
       </c>
+      <c r="D544" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E544" s="0" t="s">
         <v>1317</v>
       </c>
@@ -14388,6 +15261,9 @@
       <c r="C545" s="2" t="s">
         <v>1316</v>
       </c>
+      <c r="D545" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E545" s="2" t="s">
         <v>1317</v>
       </c>
@@ -14405,6 +15281,9 @@
       <c r="C546" s="0" t="s">
         <v>1319</v>
       </c>
+      <c r="D546" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E546" s="0" t="s">
         <v>1320</v>
       </c>
@@ -14422,6 +15301,9 @@
       <c r="C547" s="2" t="s">
         <v>1319</v>
       </c>
+      <c r="D547" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E547" s="2" t="s">
         <v>1320</v>
       </c>
@@ -14439,6 +15321,9 @@
       <c r="C548" s="0" t="s">
         <v>1321</v>
       </c>
+      <c r="D548" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E548" s="0" t="s">
         <v>1322</v>
       </c>
@@ -14456,6 +15341,9 @@
       <c r="C549" s="0" t="s">
         <v>1324</v>
       </c>
+      <c r="D549" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E549" s="0" t="s">
         <v>1325</v>
       </c>
@@ -14473,6 +15361,9 @@
       <c r="C550" s="0" t="s">
         <v>1327</v>
       </c>
+      <c r="D550" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E550" s="0" t="s">
         <v>1328</v>
       </c>
@@ -14490,6 +15381,9 @@
       <c r="C551" s="0" t="s">
         <v>1330</v>
       </c>
+      <c r="D551" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E551" s="0" t="s">
         <v>1331</v>
       </c>
@@ -14497,7 +15391,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
         <v>1332</v>
       </c>
@@ -14507,6 +15401,9 @@
       <c r="C552" s="0" t="s">
         <v>1333</v>
       </c>
+      <c r="D552" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E552" s="0" t="s">
         <v>1334</v>
       </c>
@@ -14514,7 +15411,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
         <v>1336</v>
       </c>
@@ -14524,6 +15421,9 @@
       <c r="C553" s="0" t="s">
         <v>1337</v>
       </c>
+      <c r="D553" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E553" s="0" t="s">
         <v>1338</v>
       </c>
@@ -14531,7 +15431,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
         <v>1339</v>
       </c>
@@ -14541,6 +15441,9 @@
       <c r="C554" s="0" t="s">
         <v>1340</v>
       </c>
+      <c r="D554" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E554" s="0" t="s">
         <v>1341</v>
       </c>
@@ -14548,7 +15451,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
         <v>1342</v>
       </c>
@@ -14558,6 +15461,9 @@
       <c r="C555" s="0" t="s">
         <v>1343</v>
       </c>
+      <c r="D555" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E555" s="0" t="s">
         <v>1344</v>
       </c>
@@ -14565,7 +15471,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
         <v>1345</v>
       </c>
@@ -14575,6 +15481,9 @@
       <c r="C556" s="0" t="s">
         <v>1346</v>
       </c>
+      <c r="D556" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E556" s="0" t="s">
         <v>1347</v>
       </c>
@@ -14582,7 +15491,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
         <v>1348</v>
       </c>
@@ -14592,6 +15501,9 @@
       <c r="C557" s="0" t="s">
         <v>1349</v>
       </c>
+      <c r="D557" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E557" s="0" t="s">
         <v>1350</v>
       </c>
@@ -14599,7 +15511,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
         <v>1351</v>
       </c>
@@ -14608,6 +15520,9 @@
       </c>
       <c r="C558" s="0" t="s">
         <v>1352</v>
+      </c>
+      <c r="D558" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E558" s="0" t="s">
         <v>1353</v>
@@ -14626,6 +15541,9 @@
       <c r="C559" s="0" t="s">
         <v>1355</v>
       </c>
+      <c r="D559" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E559" s="0" t="s">
         <v>1356</v>
       </c>
@@ -14643,6 +15561,9 @@
       <c r="C560" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D560" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E560" s="0" t="s">
         <v>1359</v>
       </c>
@@ -14660,6 +15581,9 @@
       <c r="C561" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D561" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E561" s="0" t="s">
         <v>1361</v>
       </c>
@@ -14677,6 +15601,9 @@
       <c r="C562" s="0" t="s">
         <v>602</v>
       </c>
+      <c r="D562" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E562" s="0" t="s">
         <v>1363</v>
       </c>
@@ -14694,6 +15621,9 @@
       <c r="C563" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="D563" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E563" s="0" t="s">
         <v>1365</v>
       </c>
@@ -14711,6 +15641,9 @@
       <c r="C564" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D564" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E564" s="0" t="s">
         <v>1367</v>
       </c>
@@ -14728,6 +15661,9 @@
       <c r="C565" s="0" t="s">
         <v>1109</v>
       </c>
+      <c r="D565" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E565" s="0" t="s">
         <v>1370</v>
       </c>
@@ -14745,6 +15681,9 @@
       <c r="C566" s="0" t="s">
         <v>1109</v>
       </c>
+      <c r="D566" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E566" s="0" t="s">
         <v>1372</v>
       </c>
@@ -14762,6 +15701,9 @@
       <c r="C567" s="0" t="s">
         <v>1109</v>
       </c>
+      <c r="D567" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E567" s="0" t="s">
         <v>1374</v>
       </c>
@@ -14779,6 +15721,9 @@
       <c r="C568" s="0" t="s">
         <v>1109</v>
       </c>
+      <c r="D568" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E568" s="0" t="s">
         <v>1375</v>
       </c>
@@ -14796,6 +15741,9 @@
       <c r="C569" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D569" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E569" s="0" t="s">
         <v>1377</v>
       </c>
@@ -14813,6 +15761,9 @@
       <c r="C570" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D570" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E570" s="0" t="s">
         <v>1379</v>
       </c>
@@ -14830,6 +15781,9 @@
       <c r="C571" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="D571" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E571" s="0" t="s">
         <v>1381</v>
       </c>
@@ -14847,6 +15801,9 @@
       <c r="C572" s="0" t="s">
         <v>1383</v>
       </c>
+      <c r="D572" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E572" s="0" t="s">
         <v>1384</v>
       </c>
@@ -14864,6 +15821,9 @@
       <c r="C573" s="0" t="s">
         <v>1383</v>
       </c>
+      <c r="D573" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E573" s="0" t="s">
         <v>1387</v>
       </c>
@@ -14881,6 +15841,9 @@
       <c r="C574" s="0" t="s">
         <v>1389</v>
       </c>
+      <c r="D574" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E574" s="0" t="s">
         <v>1390</v>
       </c>
@@ -14898,6 +15861,9 @@
       <c r="C575" s="0" t="s">
         <v>1068</v>
       </c>
+      <c r="D575" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E575" s="0" t="s">
         <v>1392</v>
       </c>
@@ -14905,7 +15871,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
         <v>1393</v>
       </c>
@@ -14915,6 +15881,9 @@
       <c r="C576" s="0" t="s">
         <v>1394</v>
       </c>
+      <c r="D576" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E576" s="0" t="s">
         <v>1395</v>
       </c>
@@ -14923,7 +15892,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F576"/>
+  <autoFilter ref="A1:F576">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Bogotá"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Congreso_2016/DATOS_COMPLETO_2016.xlsx
+++ b/Congreso_2016/DATOS_COMPLETO_2016.xlsx
@@ -2197,7 +2197,7 @@
     <t xml:space="preserve">Universidad Santo Tomás / Rama Judicial</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Educación para la Paz como elemento central en la transición de una sociedad cerrada a una sociedad abierta.</t>
+    <t xml:space="preserve">1.Educación para la Paz como elemento central en la transición de una sociedad cerrada a una sociedad abierta.</t>
   </si>
   <si>
     <t xml:space="preserve">Edilson </t>
@@ -4273,13 +4273,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4298,26 +4297,159 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -4328,7 +4460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4352,13 +4484,64 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4371,14 +4554,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4394,7 +4654,7 @@
   <dimension ref="A1:F576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="F486" activeCellId="0" sqref="F486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4403,7 +4663,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -4566,7 +4827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>35</v>
       </c>
@@ -4586,7 +4847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>38</v>
       </c>
@@ -4626,7 +4887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>45</v>
       </c>
@@ -4686,7 +4947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>54</v>
       </c>
@@ -4706,7 +4967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>57</v>
       </c>
@@ -4726,7 +4987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>57</v>
       </c>
@@ -4766,7 +5027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>63</v>
       </c>
@@ -4786,7 +5047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>66</v>
       </c>
@@ -4846,7 +5107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>74</v>
       </c>
@@ -4906,7 +5167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>83</v>
       </c>
@@ -4926,7 +5187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>86</v>
       </c>
@@ -5006,7 +5267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>54</v>
       </c>
@@ -5026,7 +5287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>98</v>
       </c>
@@ -5066,7 +5327,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>104</v>
       </c>
@@ -5106,7 +5367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>110</v>
       </c>
@@ -5126,7 +5387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>112</v>
       </c>
@@ -5166,7 +5427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>118</v>
       </c>
@@ -5186,7 +5447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>121</v>
       </c>
@@ -5246,7 +5507,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>131</v>
       </c>
@@ -5266,7 +5527,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>134</v>
       </c>
@@ -5326,7 +5587,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>83</v>
       </c>
@@ -5346,7 +5607,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>145</v>
       </c>
@@ -5423,7 +5684,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>156</v>
       </c>
@@ -5463,7 +5724,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>160</v>
       </c>
@@ -5483,7 +5744,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>160</v>
       </c>
@@ -5523,7 +5784,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>164</v>
       </c>
@@ -5543,7 +5804,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>167</v>
       </c>
@@ -5563,7 +5824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>171</v>
       </c>
@@ -5583,7 +5844,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>174</v>
       </c>
@@ -5603,7 +5864,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>176</v>
       </c>
@@ -5758,7 +6019,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>194</v>
       </c>
@@ -5798,7 +6059,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>198</v>
       </c>
@@ -5818,7 +6079,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>201</v>
       </c>
@@ -5858,7 +6119,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>207</v>
       </c>
@@ -5998,7 +6259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>224</v>
       </c>
@@ -6095,7 +6356,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>236</v>
       </c>
@@ -6135,7 +6396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>241</v>
       </c>
@@ -6175,7 +6436,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>245</v>
       </c>
@@ -6195,7 +6456,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>247</v>
       </c>
@@ -6215,7 +6476,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>249</v>
       </c>
@@ -6235,7 +6496,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>16</v>
       </c>
@@ -6255,7 +6516,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>254</v>
       </c>
@@ -6275,7 +6536,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>256</v>
       </c>
@@ -6295,7 +6556,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>259</v>
       </c>
@@ -6315,7 +6576,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>261</v>
       </c>
@@ -6355,7 +6616,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>267</v>
       </c>
@@ -6375,7 +6636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>267</v>
       </c>
@@ -6395,7 +6656,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>267</v>
       </c>
@@ -6415,7 +6676,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>269</v>
       </c>
@@ -6435,7 +6696,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>269</v>
       </c>
@@ -6475,7 +6736,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>274</v>
       </c>
@@ -6495,7 +6756,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>274</v>
       </c>
@@ -6515,7 +6776,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>276</v>
       </c>
@@ -6535,7 +6796,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>279</v>
       </c>
@@ -6555,7 +6816,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>281</v>
       </c>
@@ -6635,7 +6896,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>290</v>
       </c>
@@ -6655,7 +6916,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>290</v>
       </c>
@@ -6695,7 +6956,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>295</v>
       </c>
@@ -6775,7 +7036,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>306</v>
       </c>
@@ -6875,7 +7136,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>320</v>
       </c>
@@ -6915,7 +7176,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>326</v>
       </c>
@@ -7015,7 +7276,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>340</v>
       </c>
@@ -7055,7 +7316,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>346</v>
       </c>
@@ -7075,7 +7336,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>349</v>
       </c>
@@ -7115,7 +7376,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>354</v>
       </c>
@@ -7135,7 +7396,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>356</v>
       </c>
@@ -7155,7 +7416,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>358</v>
       </c>
@@ -7175,7 +7436,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>360</v>
       </c>
@@ -7215,7 +7476,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>365</v>
       </c>
@@ -7235,7 +7496,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>367</v>
       </c>
@@ -7255,7 +7516,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>369</v>
       </c>
@@ -7275,7 +7536,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>371</v>
       </c>
@@ -7295,7 +7556,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>373</v>
       </c>
@@ -7335,7 +7596,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>379</v>
       </c>
@@ -7355,7 +7616,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>379</v>
       </c>
@@ -7375,7 +7636,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>381</v>
       </c>
@@ -7435,7 +7696,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>356</v>
       </c>
@@ -7495,7 +7756,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>397</v>
       </c>
@@ -7535,7 +7796,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>403</v>
       </c>
@@ -7595,7 +7856,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>411</v>
       </c>
@@ -7675,7 +7936,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>420</v>
       </c>
@@ -7735,7 +7996,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>426</v>
       </c>
@@ -7955,7 +8216,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>454</v>
       </c>
@@ -7975,7 +8236,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>458</v>
       </c>
@@ -7995,7 +8256,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>83</v>
       </c>
@@ -8015,7 +8276,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>461</v>
       </c>
@@ -8035,7 +8296,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>112</v>
       </c>
@@ -8055,7 +8316,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>464</v>
       </c>
@@ -8075,7 +8336,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>468</v>
       </c>
@@ -8115,7 +8376,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>472</v>
       </c>
@@ -8135,7 +8396,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
         <v>472</v>
       </c>
@@ -8155,7 +8416,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>472</v>
       </c>
@@ -8195,7 +8456,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>477</v>
       </c>
@@ -8215,7 +8476,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>479</v>
       </c>
@@ -8235,7 +8496,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>481</v>
       </c>
@@ -8255,7 +8516,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>483</v>
       </c>
@@ -8275,7 +8536,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>390</v>
       </c>
@@ -8315,7 +8576,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>488</v>
       </c>
@@ -8335,7 +8596,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>491</v>
       </c>
@@ -8355,7 +8616,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>494</v>
       </c>
@@ -8395,7 +8656,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>499</v>
       </c>
@@ -8415,7 +8676,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>502</v>
       </c>
@@ -8475,7 +8736,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>510</v>
       </c>
@@ -8495,7 +8756,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>513</v>
       </c>
@@ -8515,7 +8776,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>515</v>
       </c>
@@ -8555,7 +8816,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>521</v>
       </c>
@@ -8575,7 +8836,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>523</v>
       </c>
@@ -8609,7 +8870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>160</v>
       </c>
@@ -8669,7 +8930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>534</v>
       </c>
@@ -8689,7 +8950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>537</v>
       </c>
@@ -8709,7 +8970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>241</v>
       </c>
@@ -8729,7 +8990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>540</v>
       </c>
@@ -8769,7 +9030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>545</v>
       </c>
@@ -8829,7 +9090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>554</v>
       </c>
@@ -8869,7 +9130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>434</v>
       </c>
@@ -8889,7 +9150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>560</v>
       </c>
@@ -8909,7 +9170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>562</v>
       </c>
@@ -8929,7 +9190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>562</v>
       </c>
@@ -8949,7 +9210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>564</v>
       </c>
@@ -8969,7 +9230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>567</v>
       </c>
@@ -9009,7 +9270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>572</v>
       </c>
@@ -9029,7 +9290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>575</v>
       </c>
@@ -9069,7 +9330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>578</v>
       </c>
@@ -9129,7 +9390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>588</v>
       </c>
@@ -9209,7 +9470,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>306</v>
       </c>
@@ -9229,7 +9490,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>601</v>
       </c>
@@ -9249,7 +9510,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>604</v>
       </c>
@@ -9269,7 +9530,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>606</v>
       </c>
@@ -9289,7 +9550,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>609</v>
       </c>
@@ -9309,7 +9570,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>238</v>
       </c>
@@ -9363,7 +9624,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>618</v>
       </c>
@@ -9443,7 +9704,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>238</v>
       </c>
@@ -9483,7 +9744,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>634</v>
       </c>
@@ -9623,7 +9884,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>209</v>
       </c>
@@ -9803,7 +10064,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>673</v>
       </c>
@@ -9843,7 +10104,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>679</v>
       </c>
@@ -9863,7 +10124,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>682</v>
       </c>
@@ -9883,7 +10144,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>684</v>
       </c>
@@ -9960,7 +10221,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>693</v>
       </c>
@@ -10040,7 +10301,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>703</v>
       </c>
@@ -10060,7 +10321,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>705</v>
       </c>
@@ -10180,7 +10441,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>719</v>
       </c>
@@ -10200,7 +10461,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>722</v>
       </c>
@@ -10220,7 +10481,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>725</v>
       </c>
@@ -10260,7 +10521,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>729</v>
       </c>
@@ -10300,7 +10561,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>734</v>
       </c>
@@ -10320,7 +10581,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>737</v>
       </c>
@@ -10340,7 +10601,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>740</v>
       </c>
@@ -10380,7 +10641,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>515</v>
       </c>
@@ -10417,7 +10678,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>156</v>
       </c>
@@ -10457,7 +10718,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>160</v>
       </c>
@@ -10477,7 +10738,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>160</v>
       </c>
@@ -10517,7 +10778,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>164</v>
       </c>
@@ -10597,7 +10858,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>204</v>
       </c>
@@ -10657,7 +10918,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>761</v>
       </c>
@@ -10697,7 +10958,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>94</v>
       </c>
@@ -10737,7 +10998,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>770</v>
       </c>
@@ -10817,7 +11078,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>782</v>
       </c>
@@ -10837,7 +11098,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>785</v>
       </c>
@@ -10857,7 +11118,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>788</v>
       </c>
@@ -10877,7 +11138,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>791</v>
       </c>
@@ -10897,7 +11158,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>794</v>
       </c>
@@ -10997,7 +11258,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>808</v>
       </c>
@@ -11037,7 +11298,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>814</v>
       </c>
@@ -11097,7 +11358,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>822</v>
       </c>
@@ -11177,7 +11438,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>833</v>
       </c>
@@ -11217,7 +11478,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>838</v>
       </c>
@@ -11237,7 +11498,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>785</v>
       </c>
@@ -11337,7 +11598,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>850</v>
       </c>
@@ -11357,7 +11618,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>853</v>
       </c>
@@ -11491,7 +11752,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>868</v>
       </c>
@@ -11511,7 +11772,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>870</v>
       </c>
@@ -11531,7 +11792,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>872</v>
       </c>
@@ -11591,7 +11852,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>877</v>
       </c>
@@ -11611,7 +11872,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>879</v>
       </c>
@@ -11631,7 +11892,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>881</v>
       </c>
@@ -11651,7 +11912,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>883</v>
       </c>
@@ -11671,7 +11932,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>885</v>
       </c>
@@ -11691,7 +11952,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
         <v>887</v>
       </c>
@@ -11731,7 +11992,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
         <v>179</v>
       </c>
@@ -11991,7 +12252,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
         <v>926</v>
       </c>
@@ -12011,7 +12272,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="383" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
         <v>926</v>
       </c>
@@ -12031,7 +12292,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>929</v>
       </c>
@@ -12051,7 +12312,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
         <v>932</v>
       </c>
@@ -12071,7 +12332,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
         <v>934</v>
       </c>
@@ -12091,7 +12352,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>936</v>
       </c>
@@ -12111,7 +12372,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>939</v>
       </c>
@@ -12131,7 +12392,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>942</v>
       </c>
@@ -12151,7 +12412,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>944</v>
       </c>
@@ -12171,7 +12432,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>947</v>
       </c>
@@ -12191,7 +12452,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>949</v>
       </c>
@@ -12211,7 +12472,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>951</v>
       </c>
@@ -12231,7 +12492,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>953</v>
       </c>
@@ -12251,7 +12512,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>955</v>
       </c>
@@ -12271,7 +12532,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>957</v>
       </c>
@@ -12291,7 +12552,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>960</v>
       </c>
@@ -12311,7 +12572,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
         <v>962</v>
       </c>
@@ -12331,7 +12592,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
         <v>964</v>
       </c>
@@ -12351,7 +12612,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>966</v>
       </c>
@@ -12371,7 +12632,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>968</v>
       </c>
@@ -12431,7 +12692,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>977</v>
       </c>
@@ -12591,7 +12852,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>998</v>
       </c>
@@ -12631,7 +12892,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>1004</v>
       </c>
@@ -12651,7 +12912,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
         <v>1006</v>
       </c>
@@ -12671,7 +12932,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
         <v>1009</v>
       </c>
@@ -12711,7 +12972,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
         <v>1013</v>
       </c>
@@ -12731,7 +12992,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
         <v>1015</v>
       </c>
@@ -12751,7 +13012,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
         <v>1017</v>
       </c>
@@ -12771,7 +13032,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
         <v>1019</v>
       </c>
@@ -12791,7 +13052,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
         <v>1021</v>
       </c>
@@ -12811,7 +13072,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
         <v>1023</v>
       </c>
@@ -12831,7 +13092,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
         <v>1009</v>
       </c>
@@ -12851,7 +13112,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
         <v>1028</v>
       </c>
@@ -12871,7 +13132,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
         <v>1030</v>
       </c>
@@ -12911,7 +13172,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
         <v>951</v>
       </c>
@@ -12931,7 +13192,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>1036</v>
       </c>
@@ -12951,7 +13212,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="430" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
         <v>1036</v>
       </c>
@@ -12971,7 +13232,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>1023</v>
       </c>
@@ -12991,7 +13252,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>1038</v>
       </c>
@@ -13011,7 +13272,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>1041</v>
       </c>
@@ -13031,7 +13292,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>1044</v>
       </c>
@@ -13051,7 +13312,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>1046</v>
       </c>
@@ -13071,7 +13332,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
         <v>1048</v>
       </c>
@@ -13091,7 +13352,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
         <v>1050</v>
       </c>
@@ -13111,7 +13372,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>1052</v>
       </c>
@@ -13131,7 +13392,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
         <v>1054</v>
       </c>
@@ -13151,7 +13412,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>1058</v>
       </c>
@@ -13171,7 +13432,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>1061</v>
       </c>
@@ -13191,7 +13452,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>1064</v>
       </c>
@@ -13211,7 +13472,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
         <v>1067</v>
       </c>
@@ -13231,7 +13492,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>1070</v>
       </c>
@@ -13271,7 +13532,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>1077</v>
       </c>
@@ -13311,7 +13572,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>1083</v>
       </c>
@@ -13331,7 +13592,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="449" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
         <v>1083</v>
       </c>
@@ -13471,7 +13732,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>1104</v>
       </c>
@@ -13491,7 +13752,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>1108</v>
       </c>
@@ -13511,7 +13772,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>1111</v>
       </c>
@@ -13531,7 +13792,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>1113</v>
       </c>
@@ -13551,7 +13812,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>1115</v>
       </c>
@@ -13571,7 +13832,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>1118</v>
       </c>
@@ -13591,7 +13852,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>1120</v>
       </c>
@@ -13611,7 +13872,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>1122</v>
       </c>
@@ -13631,7 +13892,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>1124</v>
       </c>
@@ -13651,7 +13912,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>1127</v>
       </c>
@@ -13671,7 +13932,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>1130</v>
       </c>
@@ -13691,7 +13952,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
         <v>1054</v>
       </c>
@@ -13711,7 +13972,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>1134</v>
       </c>
@@ -13931,7 +14192,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
         <v>1162</v>
       </c>
@@ -13951,7 +14212,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
         <v>1165</v>
       </c>
@@ -13971,7 +14232,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
         <v>1167</v>
       </c>
@@ -13991,7 +14252,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
         <v>1170</v>
       </c>
@@ -14011,7 +14272,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
         <v>1173</v>
       </c>
@@ -14051,7 +14312,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
         <v>1179</v>
       </c>
@@ -14071,7 +14332,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
         <v>1181</v>
       </c>
@@ -14091,7 +14352,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
         <v>1021</v>
       </c>
@@ -14111,7 +14372,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
         <v>1184</v>
       </c>
@@ -14131,7 +14392,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
         <v>1188</v>
       </c>
@@ -14151,7 +14412,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
         <v>1191</v>
       </c>
@@ -14171,7 +14432,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
         <v>1194</v>
       </c>
@@ -14311,7 +14572,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
         <v>1215</v>
       </c>
@@ -14351,7 +14612,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
         <v>1221</v>
       </c>
@@ -14411,7 +14672,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="283.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
         <v>1230</v>
       </c>
@@ -14491,7 +14752,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
         <v>1242</v>
       </c>
@@ -14591,7 +14852,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
         <v>1256</v>
       </c>
@@ -14611,7 +14872,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
         <v>1258</v>
       </c>
@@ -14631,7 +14892,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
         <v>1261</v>
       </c>
@@ -14651,7 +14912,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
         <v>1263</v>
       </c>
@@ -14691,7 +14952,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
         <v>1268</v>
       </c>
@@ -14711,7 +14972,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
         <v>1271</v>
       </c>
@@ -14731,7 +14992,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
         <v>1273</v>
       </c>
@@ -14771,7 +15032,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
         <v>1278</v>
       </c>
@@ -14791,7 +15052,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
         <v>1280</v>
       </c>
@@ -14811,7 +15072,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
         <v>1282</v>
       </c>
@@ -14831,7 +15092,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
         <v>1284</v>
       </c>
@@ -14851,7 +15112,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="525" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
         <v>1284</v>
       </c>
@@ -14871,7 +15132,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="526" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
         <v>1286</v>
       </c>
@@ -14891,7 +15152,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="527" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
         <v>1286</v>
       </c>
@@ -14911,7 +15172,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="528" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
         <v>1286</v>
       </c>
@@ -14931,7 +15192,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="529" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
         <v>1286</v>
       </c>
@@ -14951,7 +15212,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="530" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
         <v>1286</v>
       </c>
@@ -14971,7 +15232,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="531" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
         <v>1286</v>
       </c>
@@ -14991,7 +15252,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
         <v>1289</v>
       </c>
@@ -15011,7 +15272,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="533" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
         <v>1289</v>
       </c>
@@ -15031,7 +15292,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
         <v>1291</v>
       </c>
@@ -15111,7 +15372,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
         <v>1303</v>
       </c>
@@ -15131,7 +15392,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="539" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
         <v>1303</v>
       </c>
@@ -15151,7 +15412,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="540" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
         <v>1303</v>
       </c>
@@ -15191,7 +15452,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
         <v>1309</v>
       </c>
@@ -15231,7 +15492,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
         <v>1315</v>
       </c>
@@ -15251,7 +15512,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="545" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
         <v>1315</v>
       </c>
@@ -15271,7 +15532,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
         <v>1318</v>
       </c>
@@ -15291,7 +15552,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="547" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
         <v>1318</v>
       </c>
@@ -15311,7 +15572,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
         <v>955</v>
       </c>
@@ -15331,7 +15592,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
         <v>1323</v>
       </c>
@@ -15351,7 +15612,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
         <v>1326</v>
       </c>
@@ -15371,7 +15632,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
         <v>1329</v>
       </c>
@@ -15531,7 +15792,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
         <v>1354</v>
       </c>
@@ -15551,7 +15812,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
         <v>1358</v>
       </c>
@@ -15571,7 +15832,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
         <v>1360</v>
       </c>
@@ -15591,7 +15852,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
         <v>1362</v>
       </c>
@@ -15611,7 +15872,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
         <v>1364</v>
       </c>
@@ -15631,7 +15892,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
         <v>1366</v>
       </c>
@@ -15651,7 +15912,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
         <v>1369</v>
       </c>
@@ -15671,7 +15932,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
         <v>1371</v>
       </c>
@@ -15691,7 +15952,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
         <v>1373</v>
       </c>
@@ -15711,7 +15972,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
         <v>1108</v>
       </c>
@@ -15731,7 +15992,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
         <v>1376</v>
       </c>
@@ -15751,7 +16012,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
         <v>1378</v>
       </c>
@@ -15771,7 +16032,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
         <v>1380</v>
       </c>
@@ -15791,7 +16052,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
         <v>1382</v>
       </c>
@@ -15811,7 +16072,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
         <v>1386</v>
       </c>
@@ -15831,7 +16092,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
         <v>1388</v>
       </c>
@@ -15851,7 +16112,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
         <v>1391</v>
       </c>
@@ -15893,9 +16154,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F576">
-    <filterColumn colId="3">
+    <filterColumn colId="5">
       <customFilters and="true">
-        <customFilter operator="equal" val="Bogotá"/>
+        <customFilter operator="equal" val="Metafísica"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
